--- a/data/短途客运.xlsx
+++ b/data/短途客运.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B46A22-EE18-3347-AD67-B2746667AD61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7096968-7971-A744-864A-8367231BB815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
   <si>
     <t>单位</t>
   </si>
@@ -287,6 +287,10 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池容量</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -310,6 +314,7 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -317,6 +322,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -325,6 +331,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -333,6 +340,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -345,6 +353,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -429,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,7 +484,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2612,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2754,8 +2766,8 @@
       <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="3" t="s">
-        <v>38</v>
+      <c r="A4" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>27</v>
@@ -3374,7 +3386,7 @@
       <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -4379,7 +4391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>

--- a/data/短途客运.xlsx
+++ b/data/短途客运.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7096968-7971-A744-864A-8367231BB815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F2022B-6FF8-0542-8542-5FF6C9667480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -2624,7 +2624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -3780,8 +3780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4295,43 +4295,43 @@
         <v>67</v>
       </c>
       <c r="C12" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" ref="D12:L12" si="9">C12</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="9"/>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12">

--- a/data/短途客运.xlsx
+++ b/data/短途客运.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F2022B-6FF8-0542-8542-5FF6C9667480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AD2E25-E57F-2B49-B3A0-ABC3680627F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="73">
   <si>
     <t>单位</t>
   </si>
@@ -81,30 +81,12 @@
     <t>百公里能耗</t>
   </si>
   <si>
-    <t>燃料价格</t>
-  </si>
-  <si>
-    <t>元/L</t>
-  </si>
-  <si>
     <t>低温能耗率</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>充能速度</t>
-  </si>
-  <si>
-    <t>L/小时</t>
-  </si>
-  <si>
-    <t>燃料生命周期排放因子</t>
-  </si>
-  <si>
-    <t>kgCO2/L</t>
-  </si>
-  <si>
     <t>保养费用</t>
   </si>
   <si>
@@ -150,9 +132,6 @@
     <t>车身单位成本</t>
   </si>
   <si>
-    <t>元/kwh</t>
-  </si>
-  <si>
     <t>动力电池容量</t>
   </si>
   <si>
@@ -162,12 +141,6 @@
     <t>kg/kwh</t>
   </si>
   <si>
-    <t>kWh/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kWh</t>
-  </si>
-  <si>
     <t>燃料电池系统功率</t>
   </si>
   <si>
@@ -183,12 +156,6 @@
     <t>元/kg</t>
   </si>
   <si>
-    <t>kg/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kg</t>
-  </si>
-  <si>
     <t>折现率</t>
   </si>
   <si>
@@ -283,15 +250,15 @@
   </si>
   <si>
     <t>是否固定趟数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>电池容量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -301,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,12 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFEBB07A"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
@@ -389,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -423,22 +384,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -475,19 +427,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -776,7 +722,7 @@
     <col min="1" max="1" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -810,20 +756,8 @@
       <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -860,12 +794,8 @@
       <c r="L2" s="8">
         <v>136755.29013852301</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,12 +832,8 @@
       <c r="L3" s="8">
         <v>112276.44343179199</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -944,12 +870,8 @@
       <c r="L4" s="8">
         <v>100</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,12 +908,8 @@
       <c r="L5" s="8">
         <v>8000</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,12 +946,8 @@
       <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1080,12 +994,8 @@
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1132,12 +1042,8 @@
         <f t="shared" si="1"/>
         <v>289031.733570315</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1174,12 +1080,8 @@
       <c r="L9" s="10">
         <v>64034.218547131197</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1226,12 +1128,8 @@
         <f t="shared" si="2"/>
         <v>353065.95211744623</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1268,360 +1166,198 @@
       <c r="L11" s="4">
         <v>16.674955242603001</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="D12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="E12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="I12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="J12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="M12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="O12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="P12" s="3">
-        <v>8.1449999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="C13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:L13" si="3">C13</f>
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="D14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="E14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="F14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="G14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="H14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="I14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="J14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="K14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="L14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="C14" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" ref="D14:L14" si="4">C14</f>
+        <v>5000</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="F15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="G15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="H15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="I15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="J15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="K15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="L15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="M15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="N15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="O15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="P15" s="12">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="5">
-        <f t="shared" ref="D16:L16" si="3">C16</f>
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="G16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="I16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="5">
-        <f t="shared" ref="D17:L17" si="4">C17</f>
-        <v>5000</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4">
         <v>2000</v>
       </c>
-      <c r="D18" s="5">
-        <f t="shared" ref="D18:L18" si="5">C18</f>
+      <c r="D15" s="5">
+        <f t="shared" ref="D15:L15" si="5">C15</f>
         <v>2000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L15" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1629,7 +1365,7 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1664,25 +1400,13 @@
       <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8">
         <v>105</v>
@@ -1714,17 +1438,13 @@
       <c r="L2" s="8">
         <v>105</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8">
         <v>900</v>
@@ -1756,17 +1476,13 @@
       <c r="L3" s="8">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8">
         <v>115</v>
@@ -1798,17 +1514,13 @@
       <c r="L4" s="8">
         <v>115</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8">
         <v>1000</v>
@@ -1840,17 +1552,13 @@
       <c r="L5" s="8">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -1882,12 +1590,8 @@
       <c r="L6" s="8">
         <v>2</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1924,14 +1628,10 @@
       <c r="L7" s="8">
         <v>8000</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>2</v>
@@ -1966,12 +1666,8 @@
       <c r="L8" s="8">
         <v>5</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -2018,12 +1714,8 @@
         <f t="shared" si="0"/>
         <v>285478.05454102834</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2060,12 +1752,8 @@
       <c r="L10" s="10">
         <v>30292.7831058675</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2112,17 +1800,13 @@
         <f t="shared" si="1"/>
         <v>315770.83764689584</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4">
         <v>75</v>
@@ -2154,478 +1838,312 @@
       <c r="L12" s="4">
         <v>62.531082159761198</v>
       </c>
-      <c r="M12" s="4">
-        <f>L12</f>
-        <v>62.531082159761198</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" ref="N12:P12" si="2">M12</f>
-        <v>62.531082159761198</v>
-      </c>
-      <c r="O12" s="4">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4">
+        <v>105</v>
+      </c>
+      <c r="D13" s="4">
+        <v>105</v>
+      </c>
+      <c r="E13" s="4">
+        <v>105</v>
+      </c>
+      <c r="F13" s="4">
+        <v>105</v>
+      </c>
+      <c r="G13" s="4">
+        <v>105</v>
+      </c>
+      <c r="H13" s="4">
+        <v>105</v>
+      </c>
+      <c r="I13" s="4">
+        <v>105</v>
+      </c>
+      <c r="J13" s="4">
+        <v>105</v>
+      </c>
+      <c r="K13" s="4">
+        <v>105</v>
+      </c>
+      <c r="L13" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.2111801242236</v>
+      </c>
+      <c r="D14" s="4">
+        <v>6.1490683229813703</v>
+      </c>
+      <c r="E14" s="4">
+        <v>6.0881987577639798</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6.02853416149068</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.9700387577639704</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5.9126781863354001</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5.85641943304348</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5.80123076391056</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5.7470816631107597</v>
+      </c>
+      <c r="L14" s="4">
+        <v>5.69394277454363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4">
+        <v>652.17391304347802</v>
+      </c>
+      <c r="D15" s="4">
+        <v>645.65217391304395</v>
+      </c>
+      <c r="E15" s="4">
+        <v>639.26086956521794</v>
+      </c>
+      <c r="F15" s="4">
+        <v>632.99608695652103</v>
+      </c>
+      <c r="G15" s="4">
+        <v>626.85406956521695</v>
+      </c>
+      <c r="H15" s="4">
+        <v>620.83120956521702</v>
+      </c>
+      <c r="I15" s="4">
+        <v>614.92404046956506</v>
+      </c>
+      <c r="J15" s="4">
+        <v>609.12923021060897</v>
+      </c>
+      <c r="K15" s="4">
+        <v>603.44357462663004</v>
+      </c>
+      <c r="L15" s="4">
+        <v>597.86399132708095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>2</v>
+      </c>
+      <c r="K16" s="6">
+        <v>2</v>
+      </c>
+      <c r="L16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" ref="D17:L17" si="2">C17</f>
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="2"/>
-        <v>62.531082159761198</v>
-      </c>
-      <c r="P12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>62.531082159761198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="L13" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4">
-        <v>105</v>
-      </c>
-      <c r="D14" s="4">
-        <v>105</v>
-      </c>
-      <c r="E14" s="4">
-        <v>105</v>
-      </c>
-      <c r="F14" s="4">
-        <v>105</v>
-      </c>
-      <c r="G14" s="4">
-        <v>105</v>
-      </c>
-      <c r="H14" s="4">
-        <v>105</v>
-      </c>
-      <c r="I14" s="4">
-        <v>105</v>
-      </c>
-      <c r="J14" s="4">
-        <v>105</v>
-      </c>
-      <c r="K14" s="4">
-        <v>105</v>
-      </c>
-      <c r="L14" s="4">
-        <v>105</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4">
-        <v>6.2111801242236</v>
-      </c>
-      <c r="D15" s="4">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E15" s="4">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F15" s="4">
-        <v>6.02853416149068</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I15" s="4">
-        <v>5.85641943304348</v>
-      </c>
-      <c r="J15" s="4">
-        <v>5.80123076391056</v>
-      </c>
-      <c r="K15" s="4">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L15" s="4">
-        <v>5.69394277454363</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="4">
-        <v>652.17391304347802</v>
-      </c>
-      <c r="D16" s="4">
-        <v>645.65217391304395</v>
-      </c>
-      <c r="E16" s="4">
-        <v>639.26086956521794</v>
-      </c>
-      <c r="F16" s="4">
-        <v>632.99608695652103</v>
-      </c>
-      <c r="G16" s="4">
-        <v>626.85406956521695</v>
-      </c>
-      <c r="H16" s="4">
-        <v>620.83120956521702</v>
-      </c>
-      <c r="I16" s="4">
-        <v>614.92404046956506</v>
-      </c>
-      <c r="J16" s="4">
-        <v>609.12923021060897</v>
-      </c>
-      <c r="K16" s="4">
-        <v>603.44357462663004</v>
-      </c>
-      <c r="L16" s="4">
-        <v>597.86399132708095</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" s="6">
-        <v>2</v>
-      </c>
-      <c r="G17" s="6">
-        <v>2</v>
-      </c>
-      <c r="H17" s="6">
-        <v>2</v>
-      </c>
-      <c r="I17" s="6">
-        <v>2</v>
-      </c>
-      <c r="J17" s="6">
-        <v>2</v>
-      </c>
-      <c r="K17" s="6">
-        <v>2</v>
-      </c>
-      <c r="L17" s="6">
-        <v>2</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="12">
-        <v>250</v>
-      </c>
-      <c r="D18" s="12">
-        <v>250</v>
-      </c>
-      <c r="E18" s="12">
-        <v>250</v>
-      </c>
-      <c r="F18" s="12">
-        <v>250</v>
-      </c>
-      <c r="G18" s="12">
-        <v>250</v>
-      </c>
-      <c r="H18" s="12">
-        <v>250</v>
-      </c>
-      <c r="I18" s="12">
-        <v>250</v>
-      </c>
-      <c r="J18" s="12">
-        <v>250</v>
-      </c>
-      <c r="K18" s="12">
-        <v>250</v>
-      </c>
-      <c r="L18" s="12">
-        <v>250</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" ref="D18:L18" si="3">C18</f>
+        <v>5000</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="5">
-        <f t="shared" ref="D20:L20" si="3">C20</f>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="L20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D21" s="5">
-        <f t="shared" ref="D21:L21" si="4">C21</f>
-        <v>5000</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:L19" si="4">C19</f>
+        <v>2000</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="F21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="G21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="H21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="I21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="J21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="K21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="L21" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="4">
         <v>2000</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" ref="D22:L22" si="5">C22</f>
-        <v>2000</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="I22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="J22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="L22" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2633,7 +2151,7 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2668,25 +2186,13 @@
       <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="3">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="3">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="3">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="8">
         <v>80</v>
@@ -2718,17 +2224,13 @@
       <c r="L2" s="8">
         <v>80</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8">
         <v>4500</v>
@@ -2760,59 +2262,51 @@
       <c r="L3" s="8">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="16" t="s">
-        <v>83</v>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8">
+        <v>100</v>
+      </c>
+      <c r="D4" s="8">
+        <v>100</v>
+      </c>
+      <c r="E4" s="8">
+        <v>100</v>
+      </c>
+      <c r="F4" s="8">
+        <v>100</v>
+      </c>
+      <c r="G4" s="8">
+        <v>100</v>
+      </c>
+      <c r="H4" s="8">
+        <v>100</v>
+      </c>
+      <c r="I4" s="8">
+        <v>100</v>
+      </c>
+      <c r="J4" s="8">
+        <v>100</v>
+      </c>
+      <c r="K4" s="8">
+        <v>100</v>
+      </c>
+      <c r="L4" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="8">
-        <v>100</v>
-      </c>
-      <c r="D4" s="8">
-        <v>100</v>
-      </c>
-      <c r="E4" s="8">
-        <v>100</v>
-      </c>
-      <c r="F4" s="8">
-        <v>100</v>
-      </c>
-      <c r="G4" s="8">
-        <v>100</v>
-      </c>
-      <c r="H4" s="8">
-        <v>100</v>
-      </c>
-      <c r="I4" s="8">
-        <v>100</v>
-      </c>
-      <c r="J4" s="8">
-        <v>100</v>
-      </c>
-      <c r="K4" s="8">
-        <v>100</v>
-      </c>
-      <c r="L4" s="8">
-        <v>100</v>
-      </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C5" s="8">
         <v>900</v>
@@ -2844,17 +2338,13 @@
       <c r="L5" s="8">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8">
         <v>115</v>
@@ -2886,17 +2376,13 @@
       <c r="L6" s="8">
         <v>115</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8">
         <v>1000</v>
@@ -2928,17 +2414,13 @@
       <c r="L7" s="8">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
@@ -2970,12 +2452,8 @@
       <c r="L8" s="8">
         <v>2</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3012,17 +2490,13 @@
       <c r="L9" s="8">
         <v>40</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8">
         <v>4900</v>
@@ -3054,12 +2528,8 @@
       <c r="L10" s="8">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3096,17 +2566,13 @@
       <c r="L11" s="8">
         <v>8000</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8">
         <v>5</v>
@@ -3138,24 +2604,8 @@
       <c r="L12" s="8">
         <v>5</v>
       </c>
-      <c r="M12" s="4">
-        <f>L12</f>
-        <v>5</v>
-      </c>
-      <c r="N12" s="4">
-        <f t="shared" ref="N12:P12" si="0">M12</f>
-        <v>5</v>
-      </c>
-      <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -3167,47 +2617,43 @@
         <v>916000</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" ref="D13:L13" si="1">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
+        <f t="shared" ref="D13:L13" si="0">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>650963.05651344778</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>587298.25374250556</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>560284.22828128492</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>538509.52583816252</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>441344.07196994114</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>406139.33527364931</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>387949.76338534371</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>380328.98288093018</v>
       </c>
       <c r="L13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>374184.52875570272</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -3244,12 +2690,8 @@
       <c r="L14" s="10">
         <v>33930.317658677297</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3257,51 +2699,47 @@
         <v>2</v>
       </c>
       <c r="C15" s="10">
-        <f t="shared" ref="C15:L15" si="2">C14+C13</f>
+        <f t="shared" ref="C15:L15" si="1">C14+C13</f>
         <v>977296.02090787957</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>699095.44423742639</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>632149.84964089887</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>603562.2493749049</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>580509.57857256883</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>478756.67850432015</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>441847.17359676503</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>422709.03909754573</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>414625.49453786697</v>
       </c>
       <c r="L15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>408114.84641438001</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3338,440 +2776,302 @@
       <c r="L16" s="4">
         <v>5.0024865727809003</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6.2111801242236</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6.1490683229813703</v>
+      </c>
+      <c r="E18" s="4">
+        <v>6.0881987577639798</v>
+      </c>
+      <c r="F18" s="4">
+        <v>6.02853416149068</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5.9700387577639704</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5.9126781863354001</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5.85641943304348</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5.80123076391056</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5.7470816631107597</v>
+      </c>
+      <c r="L18" s="4">
+        <v>5.69394277454363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
+        <v>621.11801242236004</v>
+      </c>
+      <c r="D19" s="4">
+        <v>614.90683229813703</v>
+      </c>
+      <c r="E19" s="4">
+        <v>608.81987577639802</v>
+      </c>
+      <c r="F19" s="4">
+        <v>602.85341614906804</v>
+      </c>
+      <c r="G19" s="4">
+        <v>597.00387577639697</v>
+      </c>
+      <c r="H19" s="4">
+        <v>591.26781863353995</v>
+      </c>
+      <c r="I19" s="4">
+        <v>585.64194330434805</v>
+      </c>
+      <c r="J19" s="4">
+        <v>580.12307639105597</v>
+      </c>
+      <c r="K19" s="4">
+        <v>574.70816631107596</v>
+      </c>
+      <c r="L19" s="4">
+        <v>569.39427745436296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="4">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4">
-        <v>49</v>
-      </c>
-      <c r="E17" s="4">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4">
-        <v>47</v>
-      </c>
-      <c r="G17" s="4">
-        <v>46</v>
-      </c>
-      <c r="H17" s="4">
-        <v>45</v>
-      </c>
-      <c r="I17" s="4">
-        <v>44</v>
-      </c>
-      <c r="J17" s="4">
-        <v>43</v>
-      </c>
-      <c r="K17" s="4">
-        <v>42</v>
-      </c>
-      <c r="L17" s="4">
-        <v>41</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3">
-        <v>100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4">
-        <v>6.2111801242236</v>
-      </c>
-      <c r="D19" s="4">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E19" s="4">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F19" s="4">
-        <v>6.02853416149068</v>
-      </c>
-      <c r="G19" s="4">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H19" s="4">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I19" s="4">
-        <v>5.85641943304348</v>
-      </c>
-      <c r="J19" s="4">
-        <v>5.80123076391056</v>
-      </c>
-      <c r="K19" s="4">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L19" s="4">
-        <v>5.69394277454363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="4">
-        <v>621.11801242236004</v>
-      </c>
-      <c r="D20" s="4">
-        <v>614.90683229813703</v>
-      </c>
-      <c r="E20" s="4">
-        <v>608.81987577639802</v>
-      </c>
-      <c r="F20" s="4">
-        <v>602.85341614906804</v>
-      </c>
-      <c r="G20" s="4">
-        <v>597.00387577639697</v>
-      </c>
-      <c r="H20" s="4">
-        <v>591.26781863353995</v>
-      </c>
-      <c r="I20" s="4">
-        <v>585.64194330434805</v>
-      </c>
-      <c r="J20" s="4">
-        <v>580.12307639105597</v>
-      </c>
-      <c r="K20" s="4">
-        <v>574.70816631107596</v>
-      </c>
-      <c r="L20" s="4">
-        <v>569.39427745436296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="B20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="7" t="s">
+      <c r="C21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:L21" si="2">C21</f>
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="5">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="12">
-        <v>500</v>
-      </c>
-      <c r="D22" s="12">
-        <v>500</v>
-      </c>
-      <c r="E22" s="12">
-        <v>500</v>
-      </c>
-      <c r="F22" s="12">
-        <v>500</v>
-      </c>
-      <c r="G22" s="12">
-        <v>500</v>
-      </c>
-      <c r="H22" s="12">
-        <v>500</v>
-      </c>
-      <c r="I22" s="12">
-        <v>500</v>
-      </c>
-      <c r="J22" s="12">
-        <v>500</v>
-      </c>
-      <c r="K22" s="12">
-        <v>500</v>
-      </c>
-      <c r="L22" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="7" t="s">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" ref="D22:L22" si="3">C22</f>
+        <v>5000</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="5">
-        <f t="shared" ref="D24:L24" si="3">C24</f>
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="4">
-        <v>5000</v>
-      </c>
-      <c r="D25" s="5">
-        <f t="shared" ref="D25:L25" si="4">C25</f>
-        <v>5000</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:L23" si="4">C23</f>
+        <v>2000</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="F25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="G25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="H25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="I25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="J25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="K25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="L25" s="5">
+        <v>2000</v>
+      </c>
+      <c r="L23" s="5">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4">
         <v>2000</v>
       </c>
-      <c r="D26" s="5">
-        <f t="shared" ref="D26:L26" si="5">C26</f>
-        <v>2000</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="I26" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="J26" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="L26" s="5">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3827,10 +3127,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>0.06</v>
@@ -3874,10 +3174,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
@@ -3921,10 +3221,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4">
         <v>0.97</v>
@@ -3968,10 +3268,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4">
         <f>C6*8</f>
@@ -4016,10 +3316,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -4063,10 +3363,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4">
         <v>10000</v>
@@ -4110,10 +3410,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4">
         <v>80</v>
@@ -4157,10 +3457,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4">
         <v>0.9</v>
@@ -4204,10 +3504,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4">
         <v>0.12</v>
@@ -4251,10 +3551,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6">
         <v>16</v>
@@ -4289,10 +3589,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C12" s="6">
         <v>30</v>
@@ -4336,10 +3636,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6">
         <v>100</v>
@@ -4382,7 +3682,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4404,33 +3704,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>81</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2">
         <v>149</v>
@@ -4445,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -4456,7 +3756,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2">
         <v>138.30000000000001</v>
@@ -4471,10 +3771,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -4482,7 +3782,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2">
         <v>138.03</v>
@@ -4497,17 +3797,17 @@
         <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/短途客运.xlsx
+++ b/data/短途客运.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yinting/Downloads/归档/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AD2E25-E57F-2B49-B3A0-ABC3680627F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{231C3380-F073-3749-BA83-0E41DD637FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="运营参数" sheetId="5" r:id="rId4"/>
     <sheet name="线路" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -336,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +346,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +440,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1356,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1402,41 +1414,41 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="8">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="D2" s="8">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="E2" s="8">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="F2" s="8">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="G2" s="8">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="H2" s="8">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="I2" s="8">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="J2" s="8">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="K2" s="8">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="L2" s="8">
-        <v>105</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1478,41 +1490,41 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="8">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D4" s="8">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="E4" s="8">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F4" s="8">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G4" s="8">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H4" s="8">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="I4" s="8">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="J4" s="8">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="K4" s="8">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="L4" s="8">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1676,43 +1688,43 @@
       </c>
       <c r="C9" s="10">
         <f t="shared" ref="C9:L9" si="0">C2*C3+C4*C5*C6+C7*C8</f>
-        <v>364500</v>
+        <v>572700</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>346661.34480569221</v>
+        <v>529375.52550965012</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>334587.92277661996</v>
+        <v>501889.44774932973</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>321924.93281534489</v>
+        <v>472034.79949346592</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="0"/>
-        <v>311237.50878294767</v>
+        <v>447315.92997740622</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="0"/>
-        <v>304894.20601388562</v>
+        <v>434648.74564728927</v>
       </c>
       <c r="I9" s="10">
         <f t="shared" si="0"/>
-        <v>299489.80716228759</v>
+        <v>424271.92433752341</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>293897.29798553919</v>
+        <v>412986.41203424794</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="0"/>
-        <v>289120.469649376</v>
+        <v>403732.80194431578</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="0"/>
-        <v>285478.05454102834</v>
+        <v>397467.55324474361</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1754,7 +1766,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1762,43 +1774,43 @@
       </c>
       <c r="C11" s="10">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
-        <v>400326.89891979552</v>
+        <v>608526.89891979552</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="1"/>
-        <v>381238.95552792901</v>
+        <v>563953.13623188692</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="1"/>
-        <v>368319.99982601125</v>
+        <v>535621.52479872108</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>354770.18719048699</v>
+        <v>504880.05386860803</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="1"/>
-        <v>343334.29459022137</v>
+        <v>479412.71578467992</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="1"/>
-        <v>336546.75355338573</v>
+        <v>466301.29318678938</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="1"/>
-        <v>330763.87035828421</v>
+        <v>455545.98753352003</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>324779.70297450462</v>
+        <v>443868.81702321337</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" si="1"/>
-        <v>319668.34071764332</v>
+        <v>434280.67301258311</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="1"/>
-        <v>315770.83764689584</v>
+        <v>427760.33635061112</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3080,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/data/短途客运.xlsx
+++ b/data/短途客运.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yinting/Downloads/归档/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{231C3380-F073-3749-BA83-0E41DD637FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E65E0F-A021-5A4B-9ACF-316442B63F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -726,7 +726,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C8" sqref="C8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1015,44 +1015,44 @@
         <v>2</v>
       </c>
       <c r="C8" s="10">
-        <f>C2+C3+C7</f>
-        <v>301978.36807002599</v>
+        <f>C2+C3+C7-50000</f>
+        <v>251978.36807002599</v>
       </c>
       <c r="D8" s="10">
-        <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
-        <v>300481.34882364399</v>
+        <f t="shared" ref="D8:L8" si="1">D2+D3+D7-50000</f>
+        <v>250481.34882364399</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="1"/>
-        <v>298999.299769726</v>
+        <v>248999.299769726</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>297532.07120634604</v>
+        <v>247532.07120634604</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="1"/>
-        <v>296079.51492860098</v>
+        <v>246079.51492860098</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>294641.484213633</v>
+        <v>244641.484213633</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="1"/>
-        <v>293217.83380581404</v>
+        <v>243217.83380581404</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="1"/>
-        <v>291808.41990207403</v>
+        <v>241808.41990207403</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="1"/>
-        <v>290413.10013737099</v>
+        <v>240413.10013737099</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="1"/>
-        <v>289031.733570315</v>
+        <v>239031.733570315</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1102,43 +1102,43 @@
       </c>
       <c r="C10" s="10">
         <f t="shared" ref="C10:L10" si="2">C9+C8</f>
-        <v>366875.83583235141</v>
+        <v>316875.83583235141</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="2"/>
-        <v>365278.99908593891</v>
+        <v>315278.99908593891</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" si="2"/>
-        <v>363698.1307069906</v>
+        <v>313698.1307069906</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="2"/>
-        <v>362133.07101183076</v>
+        <v>312133.07101183076</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="2"/>
-        <v>360583.66191362357</v>
+        <v>310583.66191362357</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>359049.7469063981</v>
+        <v>309049.7469063981</v>
       </c>
       <c r="I10" s="10">
         <f t="shared" si="2"/>
-        <v>357531.17104924424</v>
+        <v>307531.17104924424</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="2"/>
-        <v>356027.78095066262</v>
+        <v>306027.78095066262</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" si="2"/>
-        <v>354539.42475306639</v>
+        <v>304539.42475306639</v>
       </c>
       <c r="L10" s="10">
         <f t="shared" si="2"/>
-        <v>353065.95211744623</v>
+        <v>303065.95211744623</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1369,7 +1369,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1687,44 +1687,44 @@
         <v>2</v>
       </c>
       <c r="C9" s="10">
-        <f t="shared" ref="C9:L9" si="0">C2*C3+C4*C5*C6+C7*C8</f>
-        <v>572700</v>
+        <f>C2*C3+C4*C5*C6+C7*C8+200000</f>
+        <v>772700</v>
       </c>
       <c r="D9" s="10">
-        <f t="shared" si="0"/>
-        <v>529375.52550965012</v>
+        <f t="shared" ref="D9:L9" si="0">D2*D3+D4*D5*D6+D7*D8+200000</f>
+        <v>729375.52550965012</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>501889.44774932973</v>
+        <v>701889.44774932973</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>472034.79949346592</v>
+        <v>672034.79949346592</v>
       </c>
       <c r="G9" s="10">
         <f t="shared" si="0"/>
-        <v>447315.92997740622</v>
+        <v>647315.92997740628</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="0"/>
-        <v>434648.74564728927</v>
+        <v>634648.74564728932</v>
       </c>
       <c r="I9" s="10">
         <f t="shared" si="0"/>
-        <v>424271.92433752341</v>
+        <v>624271.92433752341</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="0"/>
-        <v>412986.41203424794</v>
+        <v>612986.412034248</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="0"/>
-        <v>403732.80194431578</v>
+        <v>603732.80194431578</v>
       </c>
       <c r="L9" s="10">
         <f t="shared" si="0"/>
-        <v>397467.55324474361</v>
+        <v>597467.55324474361</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1774,43 +1774,43 @@
       </c>
       <c r="C11" s="10">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
-        <v>608526.89891979552</v>
+        <v>808526.89891979552</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="1"/>
-        <v>563953.13623188692</v>
+        <v>763953.13623188692</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="1"/>
-        <v>535621.52479872108</v>
+        <v>735621.52479872108</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>504880.05386860803</v>
+        <v>704880.05386860808</v>
       </c>
       <c r="G11" s="10">
         <f t="shared" si="1"/>
-        <v>479412.71578467992</v>
+        <v>679412.71578467998</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="1"/>
-        <v>466301.29318678938</v>
+        <v>666301.29318678938</v>
       </c>
       <c r="I11" s="10">
         <f t="shared" si="1"/>
-        <v>455545.98753352003</v>
+        <v>655545.98753351998</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>443868.81702321337</v>
+        <v>643868.81702321337</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" si="1"/>
-        <v>434280.67301258311</v>
+        <v>634280.67301258305</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="1"/>
-        <v>427760.33635061112</v>
+        <v>627760.33635061106</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1973,34 +1973,34 @@
         <v>15</v>
       </c>
       <c r="C16" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D16" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E16" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F16" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G16" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H16" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I16" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J16" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K16" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L16" s="6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:12">
